--- a/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99307</v>
+        <v>98983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>137098</v>
+        <v>137562</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2380733101384082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2016914341202996</v>
+        <v>0.2010338586051452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2784452474986785</v>
+        <v>0.2793873891877912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -765,19 +765,19 @@
         <v>126246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109359</v>
+        <v>108400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146589</v>
+        <v>144929</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2710940858317653</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.234831693280545</v>
+        <v>0.232773722917442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3147784586022643</v>
+        <v>0.3112135881980893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>252</v>
@@ -786,19 +786,19 @@
         <v>243465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219018</v>
+        <v>218658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>270683</v>
+        <v>271925</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.254123927862191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2286062573730651</v>
+        <v>0.2282299965757308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2825334136927516</v>
+        <v>0.2838293165485773</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>375149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355271</v>
+        <v>354807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393062</v>
+        <v>393386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7619266898615917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7215547525013215</v>
+        <v>0.7206126108122088</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7983085658797007</v>
+        <v>0.798966141394855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>351</v>
@@ -836,19 +836,19 @@
         <v>339443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319100</v>
+        <v>320760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356330</v>
+        <v>357289</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7289059141682347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6852215413977357</v>
+        <v>0.6887864118019112</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7651683067194552</v>
+        <v>0.7672262770825581</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>732</v>
@@ -857,19 +857,19 @@
         <v>714593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>687375</v>
+        <v>686133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>739040</v>
+        <v>739400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.745876072137809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7174665863072485</v>
+        <v>0.7161706834514227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7713937426269348</v>
+        <v>0.7717700034242692</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>154574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133182</v>
+        <v>133313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180281</v>
+        <v>178904</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2107085988831859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1815486193327679</v>
+        <v>0.1817264953855238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2457519412256281</v>
+        <v>0.2438745811280831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -982,19 +982,19 @@
         <v>115610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96855</v>
+        <v>95422</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136196</v>
+        <v>135954</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1851714491540471</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.155131831281883</v>
+        <v>0.1528366194047825</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.218142924479339</v>
+        <v>0.2177545630486234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>268</v>
@@ -1003,19 +1003,19 @@
         <v>270184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241377</v>
+        <v>242909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>300372</v>
+        <v>302840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1989672559023062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1777532199190507</v>
+        <v>0.1788818907546616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2211983108550114</v>
+        <v>0.2230154096068724</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>579015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553308</v>
+        <v>554685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>600407</v>
+        <v>600276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7892914011168142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7542480587743716</v>
+        <v>0.7561254188719169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8184513806672321</v>
+        <v>0.818273504614476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1053,19 +1053,19 @@
         <v>508733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488147</v>
+        <v>488389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527488</v>
+        <v>528921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.814828550845953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818570755206604</v>
+        <v>0.7822454369513766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8448681687181169</v>
+        <v>0.8471633805952176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -1074,19 +1074,19 @@
         <v>1087747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1057559</v>
+        <v>1055091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1116554</v>
+        <v>1115022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8010327440976938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7788016891449885</v>
+        <v>0.7769845903931276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8222467800809493</v>
+        <v>0.8211181092453383</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>94092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76590</v>
+        <v>76129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114079</v>
+        <v>113503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1475125659293026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1200740393533485</v>
+        <v>0.1193514538447807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1788470449614097</v>
+        <v>0.1779439093447192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1199,19 +1199,19 @@
         <v>78959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62691</v>
+        <v>63917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96219</v>
+        <v>98759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1146386998831974</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09101984753556833</v>
+        <v>0.09279978445082464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1396973809926493</v>
+        <v>0.143385640335974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -1220,19 +1220,19 @@
         <v>173051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150082</v>
+        <v>147204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200916</v>
+        <v>197295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1304448706600475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1131313879010362</v>
+        <v>0.1109618344774227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1514492279286322</v>
+        <v>0.1487198084405539</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>543764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523777</v>
+        <v>524353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>561266</v>
+        <v>561727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8524874340706974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.821152955038592</v>
+        <v>0.8220560906552808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8799259606466519</v>
+        <v>0.8806485461552197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -1270,19 +1270,19 @@
         <v>609805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>592545</v>
+        <v>590005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626073</v>
+        <v>624847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8853613001168026</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8603026190073508</v>
+        <v>0.8566143596640262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9089801524644318</v>
+        <v>0.9072002155491754</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1100</v>
@@ -1291,19 +1291,19 @@
         <v>1153569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1125704</v>
+        <v>1129325</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1176538</v>
+        <v>1179416</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8695551293399525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.848550772071368</v>
+        <v>0.851280191559446</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8868686120989639</v>
+        <v>0.8890381655225773</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>82895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66345</v>
+        <v>66260</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102011</v>
+        <v>101637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1600294365560948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1280805713693929</v>
+        <v>0.1279148755655554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1969339974027652</v>
+        <v>0.1962103532469793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1416,19 +1416,19 @@
         <v>50621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37754</v>
+        <v>38330</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64919</v>
+        <v>66473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09855813200557546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.073506202278455</v>
+        <v>0.07462736771196966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1263950919573004</v>
+        <v>0.1294211086829218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -1437,19 +1437,19 @@
         <v>133516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113951</v>
+        <v>111064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157167</v>
+        <v>156225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1294243564169605</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1104586347111733</v>
+        <v>0.1076607522746855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1523507472219763</v>
+        <v>0.1514370044862331</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415987</v>
+        <v>416361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451653</v>
+        <v>451738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8399705634439052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.803066002597235</v>
+        <v>0.8037896467530207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8719194286306072</v>
+        <v>0.872085124434445</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>451</v>
@@ -1487,19 +1487,19 @@
         <v>462995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>448697</v>
+        <v>447143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>475862</v>
+        <v>475286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9014418679944245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8736049080426996</v>
+        <v>0.8705788913170783</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9264937977215451</v>
+        <v>0.9253726322880304</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -1508,19 +1508,19 @@
         <v>898098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>874447</v>
+        <v>875389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>917663</v>
+        <v>920550</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8705756435830395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8476492527780237</v>
+        <v>0.8485629955137668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8895413652888265</v>
+        <v>0.8923392477253146</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>37209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26876</v>
+        <v>27006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49685</v>
+        <v>49991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09648517737391286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0696910903351126</v>
+        <v>0.07002911758049969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1288368724325796</v>
+        <v>0.1296312410225142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1633,19 +1633,19 @@
         <v>28216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18542</v>
+        <v>19641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40054</v>
+        <v>39800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06984351810746259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04589739915710545</v>
+        <v>0.04861725079960897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0991463337536775</v>
+        <v>0.09851900395330825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1654,19 +1654,19 @@
         <v>65425</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52234</v>
+        <v>52001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82906</v>
+        <v>82373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08285490738749275</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06614980171105755</v>
+        <v>0.06585560737451059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.104993403147759</v>
+        <v>0.1043184493312109</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>348434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335958</v>
+        <v>335652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358767</v>
+        <v>358637</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9035148226260872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8711631275674204</v>
+        <v>0.8703687589774858</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9303089096648871</v>
+        <v>0.9299708824195002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -1704,19 +1704,19 @@
         <v>375770</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>363932</v>
+        <v>364186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>385444</v>
+        <v>384345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9301564818925374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9008536662463228</v>
+        <v>0.9014809960466921</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9541026008428948</v>
+        <v>0.9513827492003911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>721</v>
@@ -1725,19 +1725,19 @@
         <v>724204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>706723</v>
+        <v>707256</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>737395</v>
+        <v>737628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9171450926125072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8950065968522409</v>
+        <v>0.8956815506687891</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9338501982889424</v>
+        <v>0.9341443926254894</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>15523</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8479</v>
+        <v>9034</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23924</v>
+        <v>25135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05324593094239532</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02908523068832188</v>
+        <v>0.03098819586723304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08206285395873787</v>
+        <v>0.08621745508224674</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1850,19 +1850,19 @@
         <v>14701</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9059</v>
+        <v>8388</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23234</v>
+        <v>23444</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04286777406733294</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02641609406410401</v>
+        <v>0.02445960592709837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06775093714723428</v>
+        <v>0.06836330467445884</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1871,19 +1871,19 @@
         <v>30223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19568</v>
+        <v>21253</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40796</v>
+        <v>42180</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.047636409708539</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0308412285798125</v>
+        <v>0.0334981254577226</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0643001874501716</v>
+        <v>0.06648230745543707</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>276004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267603</v>
+        <v>266392</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283048</v>
+        <v>282493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9467540690576047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9179371460412613</v>
+        <v>0.9137825449177533</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9709147693116781</v>
+        <v>0.969011804132767</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>355</v>
@@ -1921,19 +1921,19 @@
         <v>328233</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>319700</v>
+        <v>319490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>333875</v>
+        <v>334546</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9571322259326671</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9322490628527657</v>
+        <v>0.9316366953255412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9735839059358961</v>
+        <v>0.9755403940729016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>642</v>
@@ -1942,19 +1942,19 @@
         <v>604238</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>593665</v>
+        <v>592281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>614893</v>
+        <v>613208</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.952363590291461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9356998125498283</v>
+        <v>0.9335176925445628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9691587714201872</v>
+        <v>0.9665018745422773</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>11955</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6438</v>
+        <v>6579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21480</v>
+        <v>20491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0569617261610823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03067185230934279</v>
+        <v>0.0313446306845487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1023417196541836</v>
+        <v>0.09763137721016238</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2067,19 +2067,19 @@
         <v>4589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1221</v>
+        <v>1167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11556</v>
+        <v>10510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01383760906796263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003681421779796672</v>
+        <v>0.003518178622050218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03484287316218172</v>
+        <v>0.03168831270816081</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2088,19 +2088,19 @@
         <v>16545</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9489</v>
+        <v>9792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26444</v>
+        <v>25882</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03055079295320972</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01752194229599007</v>
+        <v>0.01808140692308854</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04882973988265264</v>
+        <v>0.04779310559280042</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>197928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>188403</v>
+        <v>189392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>203445</v>
+        <v>203304</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9430382738389177</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8976582803458164</v>
+        <v>0.9023686227898376</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9693281476906573</v>
+        <v>0.9686553693154513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -2138,19 +2138,19 @@
         <v>327078</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>320111</v>
+        <v>321157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>330446</v>
+        <v>330500</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9861623909320374</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9651571268378178</v>
+        <v>0.9683116872918387</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9963185782202033</v>
+        <v>0.9964818213779497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -2159,19 +2159,19 @@
         <v>525005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>515106</v>
+        <v>515668</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532061</v>
+        <v>531758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9694492070467903</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9511702601173473</v>
+        <v>0.9522068944071995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9824780577040099</v>
+        <v>0.9819185930769114</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>513467</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1570780197001549</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>421</v>
@@ -2284,19 +2284,19 @@
         <v>418942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1242783733325966</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>927</v>
@@ -2305,19 +2305,19 @@
         <v>932409</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1404259336869714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2755397</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2868</v>
@@ -2355,19 +2355,19 @@
         <v>2952057</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5568</v>
@@ -2376,19 +2376,19 @@
         <v>5707455</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>142909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124348</v>
+        <v>124415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164902</v>
+        <v>164499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3171097247891852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.275923442095586</v>
+        <v>0.276071304398079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3659106285616223</v>
+        <v>0.3650165060757517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -2744,19 +2744,19 @@
         <v>127869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109722</v>
+        <v>111243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146177</v>
+        <v>148702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3001420092506542</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2575453298467981</v>
+        <v>0.2611175707620149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3431154568482541</v>
+        <v>0.3490416492763048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -2765,19 +2765,19 @@
         <v>270778</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246039</v>
+        <v>245674</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299470</v>
+        <v>298829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3088642484173683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2806456722476405</v>
+        <v>0.2802289617605651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3415923720704137</v>
+        <v>0.3408607604380708</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>307752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285759</v>
+        <v>286162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>326313</v>
+        <v>326246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6828902752108148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6340893714383763</v>
+        <v>0.6349834939242484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7240765579044139</v>
+        <v>0.7239286956019209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>290</v>
@@ -2815,19 +2815,19 @@
         <v>298159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279851</v>
+        <v>277326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316306</v>
+        <v>314785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6998579907493458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6568845431517457</v>
+        <v>0.6509583507236951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7424546701532018</v>
+        <v>0.738882429237985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -2836,19 +2836,19 @@
         <v>605911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>577219</v>
+        <v>577860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630650</v>
+        <v>631015</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6911357515826317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6584076279295864</v>
+        <v>0.6591392395619291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7193543277523595</v>
+        <v>0.7197710382394349</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>168465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146819</v>
+        <v>146804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194919</v>
+        <v>193597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2468996157829288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2151758859668894</v>
+        <v>0.2151538749078775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2856706036943247</v>
+        <v>0.283732248721674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -2961,19 +2961,19 @@
         <v>89046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72220</v>
+        <v>72300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107102</v>
+        <v>109321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1463788593549429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1187183762435935</v>
+        <v>0.1188508880641013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.176059556932625</v>
+        <v>0.1797084007945107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -2982,19 +2982,19 @@
         <v>257511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>228182</v>
+        <v>228858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>284718</v>
+        <v>288868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1995207442338703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1767966482122465</v>
+        <v>0.1773198402315791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2206008469808414</v>
+        <v>0.2238163346735407</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>513857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487403</v>
+        <v>488725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>535503</v>
+        <v>535518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7531003842170713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7143293963056747</v>
+        <v>0.7162677512783259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7848241140331106</v>
+        <v>0.7848461250921225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>485</v>
@@ -3032,19 +3032,19 @@
         <v>519281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>501225</v>
+        <v>499006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536107</v>
+        <v>536027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8536211406450571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8239404430673749</v>
+        <v>0.8202915992054891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8812816237564064</v>
+        <v>0.8811491119358986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>981</v>
@@ -3053,19 +3053,19 @@
         <v>1033138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005931</v>
+        <v>1001781</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1062467</v>
+        <v>1061791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8004792557661297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7793991530191586</v>
+        <v>0.7761836653264592</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8232033517877534</v>
+        <v>0.8226801597684202</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>111902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93819</v>
+        <v>92888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133120</v>
+        <v>134744</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1647990179851316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1381682254250653</v>
+        <v>0.1367972257481266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1960463319140878</v>
+        <v>0.1984393420549162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -3178,19 +3178,19 @@
         <v>108101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90592</v>
+        <v>87474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129127</v>
+        <v>127401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1534530795509669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1285983281631344</v>
+        <v>0.1241721614846875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1833003040108009</v>
+        <v>0.180850270679315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -3199,19 +3199,19 @@
         <v>220003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193910</v>
+        <v>191464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246849</v>
+        <v>251505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1590217518540036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1401614488986756</v>
+        <v>0.138393501554844</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.178426742650553</v>
+        <v>0.1817917320735729</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>567119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>545901</v>
+        <v>544277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>585202</v>
+        <v>586133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8352009820148685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8039536680859125</v>
+        <v>0.8015606579450839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8618317745749349</v>
+        <v>0.8632027742518735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>562</v>
@@ -3249,19 +3249,19 @@
         <v>596356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575330</v>
+        <v>577056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>613865</v>
+        <v>616983</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.846546920449033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.816699695989199</v>
+        <v>0.8191497293206852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8714016718368656</v>
+        <v>0.8758278385153128</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1104</v>
@@ -3270,19 +3270,19 @@
         <v>1163475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1136629</v>
+        <v>1131973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1189568</v>
+        <v>1192014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8409782481459964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.821573257349447</v>
+        <v>0.8182082679264271</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8598385511013247</v>
+        <v>0.861606498445156</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>101534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83604</v>
+        <v>84902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122613</v>
+        <v>121423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1669222770183459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1374461260402196</v>
+        <v>0.1395788743222268</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2015765077234332</v>
+        <v>0.1996197267129953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -3395,19 +3395,19 @@
         <v>70629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56767</v>
+        <v>54091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88215</v>
+        <v>88638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1154202346140258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09276709444814807</v>
+        <v>0.08839512321134012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.144160182468567</v>
+        <v>0.1448504915961319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -3416,19 +3416,19 @@
         <v>172162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148681</v>
+        <v>148399</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200898</v>
+        <v>200472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1410941324224309</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1218498159317649</v>
+        <v>0.1216190615092736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1646442822870906</v>
+        <v>0.1642947534074906</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>506737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485658</v>
+        <v>486848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524667</v>
+        <v>523369</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8330777229816542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7984234922765668</v>
+        <v>0.8003802732870047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8625538739597803</v>
+        <v>0.8604211256777732</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>471</v>
@@ -3466,19 +3466,19 @@
         <v>541296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>523710</v>
+        <v>523287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>555158</v>
+        <v>557834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8845797653859742</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8558398175314327</v>
+        <v>0.8551495084038681</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9072329055518519</v>
+        <v>0.9116048767886599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>916</v>
@@ -3487,19 +3487,19 @@
         <v>1048034</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1019298</v>
+        <v>1019724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1071515</v>
+        <v>1071797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8589058675775691</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8353557177129094</v>
+        <v>0.8357052465925093</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8781501840682351</v>
+        <v>0.8783809384907262</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>43124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30879</v>
+        <v>31602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55683</v>
+        <v>57805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1009076817935559</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07225450444464881</v>
+        <v>0.07394720775225407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1302959308874623</v>
+        <v>0.1352604414754404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -3612,19 +3612,19 @@
         <v>41502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30302</v>
+        <v>30876</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55204</v>
+        <v>56667</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0931252030925168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06799401073136056</v>
+        <v>0.06928119121394553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1238701796907139</v>
+        <v>0.1271540809748757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3633,19 +3633,19 @@
         <v>84626</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68489</v>
+        <v>68988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101832</v>
+        <v>103325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09693486410426548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07845051707111347</v>
+        <v>0.07902206622229958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1166430808791002</v>
+        <v>0.118353246721364</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>384234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371675</v>
+        <v>369553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>396479</v>
+        <v>395756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8990923182064441</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8697040691125375</v>
+        <v>0.8647395585245596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9277454955553509</v>
+        <v>0.9260527922477461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>365</v>
@@ -3683,19 +3683,19 @@
         <v>404158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>390456</v>
+        <v>388993</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>415358</v>
+        <v>414784</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9068747969074832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8761298203092861</v>
+        <v>0.8728459190251243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9320059892686395</v>
+        <v>0.9307188087860544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>714</v>
@@ -3704,19 +3704,19 @@
         <v>788392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>771186</v>
+        <v>769693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804529</v>
+        <v>804030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9030651358957346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8833569191208998</v>
+        <v>0.881646753278636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9215494829288865</v>
+        <v>0.9209779337777004</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>22561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13991</v>
+        <v>15311</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32021</v>
+        <v>34011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0735236268330043</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04559502516834083</v>
+        <v>0.04989714242290615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1043556770097898</v>
+        <v>0.1108392860718927</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -3829,19 +3829,19 @@
         <v>20226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12640</v>
+        <v>11740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29991</v>
+        <v>30989</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0579471236588529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0362132243179343</v>
+        <v>0.03363594837778102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08592512339960778</v>
+        <v>0.08878389060054608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -3850,19 +3850,19 @@
         <v>42786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30307</v>
+        <v>31500</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56572</v>
+        <v>58452</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06523435114955578</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0462068381295126</v>
+        <v>0.04802636010773776</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08625201864742216</v>
+        <v>0.08911904123492878</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>284286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274826</v>
+        <v>272836</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292856</v>
+        <v>291536</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9264763731669957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8956443229902102</v>
+        <v>0.8891607139281071</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9544049748316591</v>
+        <v>0.9501028575770939</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>320</v>
@@ -3900,19 +3900,19 @@
         <v>328815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>319050</v>
+        <v>318052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336401</v>
+        <v>337301</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9420528763411471</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9140748766003924</v>
+        <v>0.9112161093994543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9637867756820657</v>
+        <v>0.9663640516222192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>577</v>
@@ -3921,19 +3921,19 @@
         <v>613102</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>599316</v>
+        <v>597436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>625581</v>
+        <v>624388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9347656488504442</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9137479813525777</v>
+        <v>0.9108809587650716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9537931618704872</v>
+        <v>0.9519736398922624</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>7411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3153</v>
+        <v>3173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14881</v>
+        <v>14865</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03030260463085183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0128938391884426</v>
+        <v>0.01297327807428833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06084543261318225</v>
+        <v>0.06078013409920264</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4046,19 +4046,19 @@
         <v>17317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10740</v>
+        <v>10722</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27328</v>
+        <v>26895</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04581410252271062</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02841272529275167</v>
+        <v>0.02836550625748821</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07229750361566734</v>
+        <v>0.07115219520126734</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4067,19 +4067,19 @@
         <v>24728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16103</v>
+        <v>16984</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35904</v>
+        <v>36846</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.039720512875347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02586556065109552</v>
+        <v>0.02728042500878564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05767248432614696</v>
+        <v>0.05918547177363606</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>237157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229687</v>
+        <v>229703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241415</v>
+        <v>241395</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9696973953691482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.939154567386818</v>
+        <v>0.9392198659007974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9871061608115574</v>
+        <v>0.9870267219257116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>324</v>
@@ -4117,19 +4117,19 @@
         <v>360673</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>350662</v>
+        <v>351095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>367250</v>
+        <v>367268</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9541858974772893</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9277024963843328</v>
+        <v>0.9288478047987329</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9715872747072484</v>
+        <v>0.9716344937425118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>534</v>
@@ -4138,19 +4138,19 @@
         <v>597830</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>586654</v>
+        <v>585712</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>606455</v>
+        <v>605574</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9602794871246531</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9423275156738536</v>
+        <v>0.9408145282263636</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9741344393489045</v>
+        <v>0.9727195749912143</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>597905</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1759037730055334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>448</v>
@@ -4263,19 +4263,19 @@
         <v>474690</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1347239336185309</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1031</v>
@@ -4284,19 +4284,19 @@
         <v>1072595</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1549439035260347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2801142</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2817</v>
@@ -4334,19 +4334,19 @@
         <v>3048737</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5416</v>
@@ -4355,19 +4355,19 @@
         <v>5849880</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>100261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83417</v>
+        <v>82786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119592</v>
+        <v>117404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.241701727624294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2010962094417167</v>
+        <v>0.1995749041001567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2883034085886932</v>
+        <v>0.2830295485300283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -4723,19 +4723,19 @@
         <v>97095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81478</v>
+        <v>81529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114651</v>
+        <v>115424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2459776802464741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2064150394109419</v>
+        <v>0.2065451345738769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2904548702032708</v>
+        <v>0.2924131445148276</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -4744,19 +4744,19 @@
         <v>197356</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174183</v>
+        <v>171376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>221276</v>
+        <v>222845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2437866647102285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2151621692202132</v>
+        <v>0.2116944783495614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2733342988540905</v>
+        <v>0.275272494859065</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>314551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>295220</v>
+        <v>297408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>331395</v>
+        <v>332026</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.758298272375706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7116965914113067</v>
+        <v>0.7169704514699721</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7989037905582831</v>
+        <v>0.8004250958998437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>305</v>
@@ -4794,19 +4794,19 @@
         <v>297634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280078</v>
+        <v>279305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313251</v>
+        <v>313200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7540223197535258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7095451297967295</v>
+        <v>0.7075868554851725</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7935849605890581</v>
+        <v>0.7934548654261232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>603</v>
@@ -4815,19 +4815,19 @@
         <v>612186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>588266</v>
+        <v>586697</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635359</v>
+        <v>638166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7562133352897715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7266657011459096</v>
+        <v>0.724727505140935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7848378307797869</v>
+        <v>0.7883055216504388</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>109496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92152</v>
+        <v>91618</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129900</v>
+        <v>130657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1870822681775531</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1574488102168752</v>
+        <v>0.1565371305226355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2219444070597431</v>
+        <v>0.2232382792013776</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -4940,19 +4940,19 @@
         <v>125148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107226</v>
+        <v>105482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146793</v>
+        <v>145923</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2224447192758066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1905883142321725</v>
+        <v>0.1874890631470892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2609162411952718</v>
+        <v>0.2593699069554244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -4961,19 +4961,19 @@
         <v>234644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>208146</v>
+        <v>208271</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>263458</v>
+        <v>261325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2044142093735033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1813302382301593</v>
+        <v>0.1814391193958998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2295163064162548</v>
+        <v>0.2276578377273103</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>475784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455380</v>
+        <v>454623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493128</v>
+        <v>493662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8129177318224469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7780555929402572</v>
+        <v>0.7767617207986224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8425511897831249</v>
+        <v>0.8434628694773646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -5011,19 +5011,19 @@
         <v>437456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415811</v>
+        <v>416681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>455378</v>
+        <v>457122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7775552807241934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7390837588047281</v>
+        <v>0.7406300930445756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8094116857678275</v>
+        <v>0.8125109368529108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -5032,19 +5032,19 @@
         <v>913240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884426</v>
+        <v>886559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>939738</v>
+        <v>939613</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7955857906264967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7704836935837451</v>
+        <v>0.7723421622726897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8186697617698404</v>
+        <v>0.8185608806041003</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>82366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65258</v>
+        <v>65868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99470</v>
+        <v>102100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1236559223795359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09797059285018959</v>
+        <v>0.09888772983162426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.149332826677552</v>
+        <v>0.1532813677373191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -5157,19 +5157,19 @@
         <v>88015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71984</v>
+        <v>73028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106659</v>
+        <v>105877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1340062603209785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1095989668757452</v>
+        <v>0.11118810376221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1623927248579459</v>
+        <v>0.1612022074952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -5178,19 +5178,19 @@
         <v>170381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147868</v>
+        <v>149802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196837</v>
+        <v>197289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1287947223261759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1117765716831751</v>
+        <v>0.1132383526948734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1487934392707619</v>
+        <v>0.149135273733676</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>583727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>566623</v>
+        <v>563993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>600835</v>
+        <v>600225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8763440776204641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8506671733224478</v>
+        <v>0.8467186322626808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9020294071498104</v>
+        <v>0.9011122701683757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -5228,19 +5228,19 @@
         <v>568781</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550137</v>
+        <v>550919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584812</v>
+        <v>583768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8659937396790215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8376072751420541</v>
+        <v>0.8387977925047999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8904010331242548</v>
+        <v>0.88881189623779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1129</v>
@@ -5249,19 +5249,19 @@
         <v>1152508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1126052</v>
+        <v>1125600</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1175021</v>
+        <v>1173087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8712052776738241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8512065607292381</v>
+        <v>0.8508647262663239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8882234283168248</v>
+        <v>0.8867616473051264</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>78187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62393</v>
+        <v>62009</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96165</v>
+        <v>97030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1216209864549068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0970535961931611</v>
+        <v>0.0964562725893426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.149585329036275</v>
+        <v>0.1509303907774689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -5374,19 +5374,19 @@
         <v>71699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56082</v>
+        <v>56734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89352</v>
+        <v>88482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1115569786320645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08725836624232292</v>
+        <v>0.08827338905489228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1390249334919394</v>
+        <v>0.1376709508306676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -5395,19 +5395,19 @@
         <v>149886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124947</v>
+        <v>125283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171784</v>
+        <v>172742</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1165896428593975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09719049064643639</v>
+        <v>0.09745191246100623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1336235347737801</v>
+        <v>0.1343682429107867</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>564689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>546711</v>
+        <v>545846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>580483</v>
+        <v>580867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8783790135450932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8504146709637251</v>
+        <v>0.8490696092225313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9029464038068389</v>
+        <v>0.9035437274106575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>530</v>
@@ -5445,19 +5445,19 @@
         <v>571009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>553356</v>
+        <v>554226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>586626</v>
+        <v>585974</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8884430213679355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8609750665080607</v>
+        <v>0.862329049169333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9127416337576774</v>
+        <v>0.9117266109451078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1037</v>
@@ -5466,19 +5466,19 @@
         <v>1135698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1113800</v>
+        <v>1112842</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1160637</v>
+        <v>1160301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8834103571406025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.86637646522622</v>
+        <v>0.8656317570892135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9028095093535639</v>
+        <v>0.902548087538994</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>50504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38292</v>
+        <v>37655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65813</v>
+        <v>63732</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1064484710209263</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0807079946987031</v>
+        <v>0.07936677901851334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1387154426074048</v>
+        <v>0.1343286663267486</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -5591,19 +5591,19 @@
         <v>51954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38823</v>
+        <v>38521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66968</v>
+        <v>67110</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.105334284040376</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07871304301021434</v>
+        <v>0.07809999642938832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1357744737000204</v>
+        <v>0.1360638219442303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -5612,19 +5612,19 @@
         <v>102458</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84568</v>
+        <v>83802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125149</v>
+        <v>124486</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1058805662451154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08739303629465972</v>
+        <v>0.08660087116231692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1293290667990186</v>
+        <v>0.1286438344185415</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>423944</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>408635</v>
+        <v>410716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>436156</v>
+        <v>436793</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8935515289790738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8612845573925952</v>
+        <v>0.8656713336732514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.919292005301297</v>
+        <v>0.9206332209814865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>385</v>
@@ -5662,19 +5662,19 @@
         <v>441273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426259</v>
+        <v>426117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454404</v>
+        <v>454706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.894665715959624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8642255262999797</v>
+        <v>0.8639361780557702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9212869569897857</v>
+        <v>0.9219000035706117</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -5683,19 +5683,19 @@
         <v>865218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>842527</v>
+        <v>843190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>883108</v>
+        <v>883874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8941194337548847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8706709332009813</v>
+        <v>0.8713561655814579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9126069637053403</v>
+        <v>0.9133991288376828</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>20677</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12443</v>
+        <v>13399</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31601</v>
+        <v>31111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06275536935405142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03776697347265103</v>
+        <v>0.04066651520487345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09591324709435091</v>
+        <v>0.09442570027977024</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5808,19 +5808,19 @@
         <v>29182</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20098</v>
+        <v>19853</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41651</v>
+        <v>41212</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07828966028151024</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05391863572570518</v>
+        <v>0.05325998965888935</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1117401219460904</v>
+        <v>0.1105625798242517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -5829,19 +5829,19 @@
         <v>49859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37937</v>
+        <v>37317</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65052</v>
+        <v>65220</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07100108186840441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05402408122051003</v>
+        <v>0.05314152991534669</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09263644555405318</v>
+        <v>0.09287644865611433</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>308803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297879</v>
+        <v>298369</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>317037</v>
+        <v>316081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9372446306459485</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9040867529056491</v>
+        <v>0.9055742997202298</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.962233026527349</v>
+        <v>0.9593334847951266</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>322</v>
@@ -5879,19 +5879,19 @@
         <v>343565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>331096</v>
+        <v>331535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>352649</v>
+        <v>352894</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9217103397184897</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8882598780539096</v>
+        <v>0.8894374201757483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9460813642742952</v>
+        <v>0.9467400103411107</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>624</v>
@@ -5900,19 +5900,19 @@
         <v>652368</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637175</v>
+        <v>637007</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>664290</v>
+        <v>664910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9289989181315956</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9073635544459467</v>
+        <v>0.9071235513438857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9459759187794899</v>
+        <v>0.9468584700846533</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>11664</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6293</v>
+        <v>6441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20378</v>
+        <v>20420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04623232355379201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02494597550636539</v>
+        <v>0.02552982119401836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08077419662004311</v>
+        <v>0.0809428659190097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6025,19 +6025,19 @@
         <v>14354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7608</v>
+        <v>7774</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24617</v>
+        <v>23396</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03630188142315682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01924209196876706</v>
+        <v>0.01966087612014104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0622581490790908</v>
+        <v>0.05917208861788897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6046,19 +6046,19 @@
         <v>26017</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16730</v>
+        <v>16767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38258</v>
+        <v>37878</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04016996482711453</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02583121269550881</v>
+        <v>0.02588837142901956</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05906957133455221</v>
+        <v>0.0584833933096012</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>240618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231904</v>
+        <v>231862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245989</v>
+        <v>245841</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.953767676446208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9192258033799572</v>
+        <v>0.9190571340809903</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9750540244936347</v>
+        <v>0.9744701788059816</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -6096,19 +6096,19 @@
         <v>381042</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>370779</v>
+        <v>372000</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387788</v>
+        <v>387622</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9636981185768432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9377418509209058</v>
+        <v>0.9408279113821109</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.980757908031232</v>
+        <v>0.9803391238798589</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>572</v>
@@ -6117,19 +6117,19 @@
         <v>621662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>609421</v>
+        <v>609801</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>630949</v>
+        <v>630912</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9598300351728855</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9409304286654478</v>
+        <v>0.9415166066903988</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9741687873044912</v>
+        <v>0.97411162857098</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>453154</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.134656121118779</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>463</v>
@@ -6242,19 +6242,19 @@
         <v>477446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1357071056157401</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>886</v>
@@ -6263,19 +6263,19 @@
         <v>930600</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1351932886635165</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2912118</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2852</v>
@@ -6313,19 +6313,19 @@
         <v>3040762</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5633</v>
@@ -6334,19 +6334,19 @@
         <v>5952880</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>87907</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63672</v>
+        <v>62687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119340</v>
+        <v>119031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2155664956670605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1561377214141297</v>
+        <v>0.1537220741230863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2926485465971103</v>
+        <v>0.2918909228664875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -6702,19 +6702,19 @@
         <v>76576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57338</v>
+        <v>57561</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100205</v>
+        <v>98553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2112374523067116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1581697105188331</v>
+        <v>0.1587823452026188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2764172874900623</v>
+        <v>0.271861991244659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -6723,19 +6723,19 @@
         <v>164483</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133340</v>
+        <v>134098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201264</v>
+        <v>201375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2135292117579305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1730997834891879</v>
+        <v>0.1740848173778227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.261278439770005</v>
+        <v>0.2614222775524505</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>319886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>288453</v>
+        <v>288762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344121</v>
+        <v>345106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7844335043329396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7073514534028897</v>
+        <v>0.7081090771335122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8438622785858703</v>
+        <v>0.8462779258769136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -6773,19 +6773,19 @@
         <v>285936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262307</v>
+        <v>263959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305174</v>
+        <v>304951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7887625476932885</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7235827125099377</v>
+        <v>0.7281380087553408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8418302894811668</v>
+        <v>0.8412176547973809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>296</v>
@@ -6794,19 +6794,19 @@
         <v>605822</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569041</v>
+        <v>568930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>636965</v>
+        <v>636207</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7864707882420696</v>
+        <v>0.7864707882420693</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7387215602299946</v>
+        <v>0.7385777224475494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8269002165108119</v>
+        <v>0.8259151826221772</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>127312</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103667</v>
+        <v>103961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153825</v>
+        <v>153383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2669638923204362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2173808608324221</v>
+        <v>0.2179979646891031</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3225586015888273</v>
+        <v>0.3216315364998932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -6919,19 +6919,19 @@
         <v>97134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80003</v>
+        <v>81278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>116592</v>
+        <v>119077</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1944059064372736</v>
+        <v>0.1944059064372735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1601191997331775</v>
+        <v>0.1626722314663629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2333492229011144</v>
+        <v>0.2383226800705048</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -6940,19 +6940,19 @@
         <v>224446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>193635</v>
+        <v>196793</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257718</v>
+        <v>259762</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2298395338357958</v>
+        <v>0.2298395338357959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1982875086794804</v>
+        <v>0.2015221718633172</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2639103053329153</v>
+        <v>0.2660035838368046</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>349578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323065</v>
+        <v>323507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>373223</v>
+        <v>372929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7330361076795638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6774413984111727</v>
+        <v>0.6783684635001067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7826191391675777</v>
+        <v>0.782002035310897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -6990,19 +6990,19 @@
         <v>402511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383053</v>
+        <v>380568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419642</v>
+        <v>418367</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8055940935627266</v>
+        <v>0.8055940935627264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7666507770988856</v>
+        <v>0.7616773199294955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8398808002668227</v>
+        <v>0.8373277685336372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>599</v>
@@ -7011,19 +7011,19 @@
         <v>752089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718817</v>
+        <v>716773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>782900</v>
+        <v>779742</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7701604661642041</v>
+        <v>0.7701604661642042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7360896946670847</v>
+        <v>0.7339964161631951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8017124913205197</v>
+        <v>0.7984778281366824</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>127946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107523</v>
+        <v>107862</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150371</v>
+        <v>151150</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2073713432970731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1742709020208275</v>
+        <v>0.1748194326128136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2437165316805256</v>
+        <v>0.2449793251275502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -7136,19 +7136,19 @@
         <v>97380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81817</v>
+        <v>82177</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112318</v>
+        <v>113889</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1565241818491749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1315090650008082</v>
+        <v>0.1320879743314351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.180534756484706</v>
+        <v>0.1830600704875543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -7157,19 +7157,19 @@
         <v>225326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>200091</v>
+        <v>196580</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251425</v>
+        <v>251499</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1818421068234622</v>
+        <v>0.1818421068234621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1614773795903133</v>
+        <v>0.1586433292252437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2029042392426875</v>
+        <v>0.2029646721812147</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>489044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466619</v>
+        <v>465840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509467</v>
+        <v>509128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7926286567029267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7562834683194746</v>
+        <v>0.7550206748724497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8257290979791723</v>
+        <v>0.8251805673871864</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>721</v>
@@ -7207,19 +7207,19 @@
         <v>524759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>509821</v>
+        <v>508250</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540322</v>
+        <v>539962</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8434758181508251</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8194652435152942</v>
+        <v>0.8169399295124455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8684909349991918</v>
+        <v>0.8679120256685647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1158</v>
@@ -7228,19 +7228,19 @@
         <v>1013803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>987704</v>
+        <v>987630</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1039038</v>
+        <v>1042549</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8181578931765378</v>
+        <v>0.8181578931765379</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7970957607573126</v>
+        <v>0.7970353278187853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8385226204096869</v>
+        <v>0.8413566707747563</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>110068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92174</v>
+        <v>91689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132783</v>
+        <v>132951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1573687439719015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1317849794514746</v>
+        <v>0.1310918168468846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1898449444329486</v>
+        <v>0.190085554357053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -7353,19 +7353,19 @@
         <v>102451</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88700</v>
+        <v>86620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118538</v>
+        <v>117340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1393932420056062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1206844248636701</v>
+        <v>0.1178543129771869</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1612812565898328</v>
+        <v>0.1596518441015417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -7374,19 +7374,19 @@
         <v>212519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185832</v>
+        <v>191478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237185</v>
+        <v>238608</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1481582567605744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1295532679600968</v>
+        <v>0.1334892957020367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1653540753910507</v>
+        <v>0.1663459801180293</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>589361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>566646</v>
+        <v>566478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607255</v>
+        <v>607740</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8426312560280983</v>
+        <v>0.8426312560280986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8101550555670514</v>
+        <v>0.8099144456429472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8682150205485254</v>
+        <v>0.8689081831531155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>989</v>
@@ -7424,19 +7424,19 @@
         <v>632525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616438</v>
+        <v>617636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>646276</v>
+        <v>648356</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8606067579943939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8387187434101673</v>
+        <v>0.8403481558984582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8793155751363301</v>
+        <v>0.8821456870228132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1555</v>
@@ -7445,19 +7445,19 @@
         <v>1221886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1197220</v>
+        <v>1195797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1248573</v>
+        <v>1242927</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8518417432394257</v>
+        <v>0.8518417432394255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8346459246089492</v>
+        <v>0.8336540198819706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8704467320399032</v>
+        <v>0.8665107042979633</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>81012</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66942</v>
+        <v>66413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100511</v>
+        <v>98242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1331779440975961</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1100479162491244</v>
+        <v>0.1091787613350092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1652329096866088</v>
+        <v>0.1615034817357598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -7570,19 +7570,19 @@
         <v>71769</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59328</v>
+        <v>60075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84777</v>
+        <v>84689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1179979779599653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09754455782766797</v>
+        <v>0.09877186960055956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.139385049584529</v>
+        <v>0.1392412974588065</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -7591,19 +7591,19 @@
         <v>152780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132940</v>
+        <v>131882</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172912</v>
+        <v>170912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1255884472222067</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.109279681643737</v>
+        <v>0.1084099915188411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1421370515417277</v>
+        <v>0.1404933462388881</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>527284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>507785</v>
+        <v>510054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541354</v>
+        <v>541883</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8668220559024037</v>
+        <v>0.8668220559024039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8347670903133912</v>
+        <v>0.8384965182642401</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8899520837508755</v>
+        <v>0.8908212386649909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>887</v>
@@ -7641,19 +7641,19 @@
         <v>536450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>523442</v>
+        <v>523530</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548891</v>
+        <v>548144</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8820020220400346</v>
+        <v>0.8820020220400345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8606149504154709</v>
+        <v>0.8607587025411932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9024554421723319</v>
+        <v>0.9012281303994404</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1461</v>
@@ -7662,19 +7662,19 @@
         <v>1063735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1043603</v>
+        <v>1045603</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1083575</v>
+        <v>1084633</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8744115527777933</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8578629484582724</v>
+        <v>0.8595066537611119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8907203183562631</v>
+        <v>0.8915900084811588</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>40253</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31071</v>
+        <v>31194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51925</v>
+        <v>51277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09914251599083951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07652662748664955</v>
+        <v>0.07683104819530692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1278901441978899</v>
+        <v>0.1262944322008426</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -7787,19 +7787,19 @@
         <v>30290</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22837</v>
+        <v>22877</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38214</v>
+        <v>37748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06906831011839724</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05207329697755243</v>
+        <v>0.05216499081729242</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08713624843273862</v>
+        <v>0.08607324952778955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -7808,19 +7808,19 @@
         <v>70544</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58361</v>
+        <v>58743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83963</v>
+        <v>82983</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08352598352871693</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06910126670984575</v>
+        <v>0.06955418324482349</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09941548382222726</v>
+        <v>0.09825473736070685</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>365761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>354089</v>
+        <v>354737</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>374943</v>
+        <v>374820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9008574840091605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8721098558021102</v>
+        <v>0.8737055677991573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9234733725133504</v>
+        <v>0.9231689518046928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>766</v>
@@ -7858,19 +7858,19 @@
         <v>408268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400344</v>
+        <v>400810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415721</v>
+        <v>415681</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9309316898816027</v>
+        <v>0.9309316898816028</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9128637515672607</v>
+        <v>0.9139267504722102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.947926703022447</v>
+        <v>0.9478350091827075</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1278</v>
@@ -7879,19 +7879,19 @@
         <v>774027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>760608</v>
+        <v>761588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>786210</v>
+        <v>785828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.916474016471283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9005845161777728</v>
+        <v>0.9017452626392917</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9308987332901542</v>
+        <v>0.9304458167551761</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>23701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16940</v>
+        <v>16716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32041</v>
+        <v>32565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07649093071820889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0546701275135739</v>
+        <v>0.05394709040668842</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1034050753207676</v>
+        <v>0.1050974292106908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -8004,19 +8004,19 @@
         <v>21789</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15953</v>
+        <v>15835</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30100</v>
+        <v>29862</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04689749008247086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03433632481739155</v>
+        <v>0.03408309588613216</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06478552997839911</v>
+        <v>0.06427246901228566</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>84</v>
@@ -8025,19 +8025,19 @@
         <v>45490</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36633</v>
+        <v>36454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56792</v>
+        <v>57452</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05873751906805327</v>
+        <v>0.05873751906805328</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04730119039156144</v>
+        <v>0.04706941514088295</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07333079976107272</v>
+        <v>0.07418318977261851</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>286154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>277814</v>
+        <v>277290</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>292915</v>
+        <v>293139</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9235090692817911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8965949246792325</v>
+        <v>0.8949025707893085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.945329872486426</v>
+        <v>0.9460529095933117</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>835</v>
@@ -8075,19 +8075,19 @@
         <v>442820</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>434509</v>
+        <v>434747</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>448656</v>
+        <v>448774</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9531025099175292</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9352144700216007</v>
+        <v>0.9357275309877141</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.965663675182608</v>
+        <v>0.9659169041138677</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1254</v>
@@ -8096,19 +8096,19 @@
         <v>728974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>717672</v>
+        <v>717012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>737831</v>
+        <v>738010</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9412624809319469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9266692002389281</v>
+        <v>0.9258168102273816</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9526988096084387</v>
+        <v>0.952930584859117</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>598199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1696890530434719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>627</v>
@@ -8221,19 +8221,19 @@
         <v>497389</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1333246494814634</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1126</v>
@@ -8242,19 +8242,19 @@
         <v>1095588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1509921729445794</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2927068</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4731</v>
@@ -8292,19 +8292,19 @@
         <v>3233269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7601</v>
@@ -8313,19 +8313,19 @@
         <v>6160337</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="27">
